--- a/TestAutothan.suite/Resources/TestData.xlsx
+++ b/TestAutothan.suite/Resources/TestData.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EggplantSuites\TestAutothan\TestAutothon\TestAutothan.suite\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Test\Desktop\TestAuto_Step_In\TestAutothon\TestAutothan.suite\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891B3A0D-F126-4880-9AA9-E02E7ADF2405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94455F4C-D6FA-45A5-8F64-B3A37D83CE96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Username</t>
   </si>
@@ -58,19 +57,19 @@
     <t>Tautothon</t>
   </si>
   <si>
-    <t xml:space="preserve">The participation is amazing and about 35 teams are participating in this #TESTAUTOTHON2023. &lt;&lt;Happy to be part of this event&gt;&gt; @stepin_forum @verity_software </t>
-  </si>
-  <si>
-    <t xml:space="preserve">My team Ideabytes is doing great and we are sure to win the event. @stepin_forum @verity_software </t>
-  </si>
-  <si>
-    <t>This is a simple demo on participation of TestAutothon 2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">My team Ideabytes is doing great and we are sure to win the event. </t>
-  </si>
-  <si>
-    <t>First Post</t>
+    <t>Super happy to participate in #TESTAUTOTHON2023 organised by @stepin_forum in partnership with @verity_software. This event is running parallel with #STEPINSUMMIT2023 , Thank you  Step-In Forum.</t>
+  </si>
+  <si>
+    <t>The participation is amazing and about 35 teams are participating in this #TESTAUTOTHON2023. &lt;&lt;Happy to be part of this event&gt;&gt; @stepin_forum @verity_software</t>
+  </si>
+  <si>
+    <t>My team Ideabytes is doing great and we are sure to win the event. @stepin_forum @verity_software</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Today is day 1, preliminary round for #TESTAUTOTHON2023. Results tommorow during #STEPINSUMMIT 2023 @Ideabytes @Stepin_forum  @verity_software </t>
+  </si>
+  <si>
+    <t xml:space="preserve">#TESTAUTOTHON2023 #STEPINSUMMIT2023  @stepin_forum @Eggplant </t>
   </si>
 </sst>
 </file>
@@ -130,14 +129,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -419,23 +415,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.109375" customWidth="1"/>
-    <col min="2" max="2" width="34.5546875" customWidth="1"/>
-    <col min="3" max="3" width="11.77734375" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" customWidth="1"/>
-    <col min="5" max="5" width="25.5546875" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -461,7 +454,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -469,23 +462,22 @@
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
       <c r="H2" s="1">
         <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C3" s="3">
-        <v>0.13541666666666666</v>
       </c>
     </row>
   </sheetData>
@@ -494,79 +486,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAC9F554-A984-4967-8ADB-A8C3FBD0B2EF}">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.77734375" customWidth="1"/>
-    <col min="5" max="5" width="37.109375" customWidth="1"/>
-    <col min="6" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.77734375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0.13541666666666666</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="1">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{ED953E5A-5B61-4C30-8E26-9C59A79F6C00}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/TestAutothan.suite/Resources/TestData.xlsx
+++ b/TestAutothan.suite/Resources/TestData.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Test\Desktop\TestAuto_Step_In\TestAutothon\TestAutothan.suite\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EggplantSuites\TestAutothan\TestAutothon_Demo\TestAutothan.suite\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94455F4C-D6FA-45A5-8F64-B3A37D83CE96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435C8AD7-4BA8-4730-B353-8E008518A3BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>Username</t>
   </si>
@@ -129,11 +130,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -417,18 +423,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
-    <col min="2" max="2" width="34.5703125" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.109375" customWidth="1"/>
+    <col min="4" max="4" width="44.44140625" customWidth="1"/>
+    <col min="5" max="5" width="35.21875" customWidth="1"/>
+    <col min="6" max="6" width="29.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.21875" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -454,7 +465,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -464,16 +475,16 @@
       <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H2" s="1">
@@ -486,4 +497,67 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B06EE44-9C2A-45D9-A126-1BE60EE17DDF}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="33.44140625" customWidth="1"/>
+    <col min="2" max="2" width="29.109375" customWidth="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.21875" customWidth="1"/>
+    <col min="5" max="5" width="29.5546875" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>